--- a/excel-2007/rounding.xlsx
+++ b/excel-2007/rounding.xlsx
@@ -552,131 +552,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
+        <f>MROUND(11,5)</f>
         <v>10</v>
       </c>
       <c r="B2">
-        <f>MROUND(11,5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
+        <f>MROUND(12,5)</f>
         <v>10</v>
       </c>
       <c r="B3">
-        <f>MROUND(12,5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
+        <f>MROUND(12.5,5)</f>
         <v>15</v>
       </c>
       <c r="B4">
-        <f>MROUND(12.5,5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
+        <f>MROUND(13,5)</f>
         <v>15</v>
       </c>
       <c r="B5">
-        <f>MROUND(13,5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
+        <f>FLOOR(11,5)</f>
         <v>10</v>
       </c>
       <c r="B6">
-        <f>FLOOR(11,5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
+        <f>FLOOR(12,5)</f>
         <v>10</v>
       </c>
       <c r="B7">
-        <f>FLOOR(12,5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
+        <f>FLOOR(12.5,5)</f>
         <v>10</v>
       </c>
       <c r="B8">
-        <f>FLOOR(12.5,5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
+        <f>FLOOR(13,5)</f>
         <v>10</v>
       </c>
       <c r="B9">
-        <f>FLOOR(13,5)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
+        <f>CEILING(11,5)</f>
         <v>15</v>
       </c>
       <c r="B10">
-        <f>CEILING(11,5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
+        <f>CEILING(12,5)</f>
         <v>15</v>
       </c>
       <c r="B11">
-        <f>CEILING(12,5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
+        <f>CEILING(12.5,5)</f>
         <v>15</v>
       </c>
       <c r="B12">
-        <f>CEILING(12.5,5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
+        <f>CEILING(13,5)</f>
         <v>15</v>
       </c>
       <c r="B13">
-        <f>CEILING(13,5)</f>
         <v>15</v>
       </c>
     </row>
